--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="149">
   <si>
-    <t>Sample_name</t>
-  </si>
-  <si>
     <t>Treatment</t>
   </si>
   <si>
@@ -471,6 +468,9 @@
   </si>
   <si>
     <t>Timepoint</t>
+  </si>
+  <si>
+    <t>Sample_names</t>
   </si>
 </sst>
 </file>
@@ -790,9 +790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -803,21 +801,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -825,10 +823,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -836,10 +834,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -847,10 +845,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -858,10 +856,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -869,10 +867,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -880,10 +878,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -891,10 +889,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -902,10 +900,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>1.5</v>
@@ -913,10 +911,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>2.5</v>
@@ -924,10 +922,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>3.5</v>
@@ -935,10 +933,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>4.5</v>
@@ -946,10 +944,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>5.5</v>
@@ -957,10 +955,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>19</v>
@@ -968,10 +966,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>21</v>
@@ -979,10 +977,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>23</v>
@@ -990,10 +988,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>25</v>
@@ -1001,10 +999,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>27</v>
@@ -1012,10 +1010,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>28.5</v>
@@ -1023,10 +1021,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>29.5</v>
@@ -1034,10 +1032,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>43</v>
@@ -1045,10 +1043,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>45</v>
@@ -1056,10 +1054,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>47</v>
@@ -1067,10 +1065,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>49</v>
@@ -1078,10 +1076,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>51</v>
@@ -1089,10 +1087,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>53</v>
@@ -1100,10 +1098,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>55</v>
@@ -1111,10 +1109,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>67</v>
@@ -1122,10 +1120,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>69</v>
@@ -1133,10 +1131,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31">
         <v>71</v>
@@ -1144,10 +1142,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C32">
         <v>73.5</v>
@@ -1155,10 +1153,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C33">
         <v>73</v>
@@ -1166,10 +1164,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C34">
         <v>74.5</v>
@@ -1177,10 +1175,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C35">
         <v>74</v>
@@ -1188,10 +1186,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C36">
         <v>75.5</v>
@@ -1199,10 +1197,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C37">
         <v>75</v>
@@ -1210,10 +1208,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C38">
         <v>76.5</v>
@@ -1221,10 +1219,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C39">
         <v>76</v>
@@ -1232,10 +1230,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C40">
         <v>77.5</v>
@@ -1243,10 +1241,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C41">
         <v>77</v>
@@ -1254,10 +1252,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C42">
         <v>78.5</v>
@@ -1265,10 +1263,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C43">
         <v>78</v>
@@ -1276,10 +1274,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C44">
         <v>79</v>
@@ -1287,10 +1285,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C45">
         <v>91</v>
@@ -1298,10 +1296,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C46">
         <v>93</v>
@@ -1309,10 +1307,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C47">
         <v>95</v>
@@ -1320,10 +1318,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C48">
         <v>97</v>
@@ -1331,10 +1329,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>141</v>
+      </c>
+      <c r="B49" t="s">
         <v>142</v>
-      </c>
-      <c r="B49" t="s">
-        <v>143</v>
       </c>
       <c r="C49">
         <v>99</v>
@@ -1342,10 +1340,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C50">
         <v>101</v>
@@ -1353,10 +1351,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C51">
         <v>169</v>
@@ -1364,10 +1362,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C52">
         <v>170.5</v>
@@ -1375,10 +1373,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C53">
         <v>170</v>
@@ -1386,10 +1384,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C54">
         <v>171.5</v>
@@ -1397,10 +1395,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C55">
         <v>171</v>
@@ -1408,10 +1406,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C56">
         <v>172.5</v>
@@ -1419,10 +1417,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B57" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C57">
         <v>172</v>
@@ -1430,10 +1428,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C58">
         <v>173.5</v>
@@ -1441,10 +1439,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C59">
         <v>173</v>
@@ -1452,10 +1450,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C60">
         <v>174</v>
@@ -1463,10 +1461,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B61" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C61">
         <v>174</v>
@@ -1474,10 +1472,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C62">
         <v>175.5</v>
@@ -1485,10 +1483,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B63" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C63">
         <v>175</v>
@@ -1496,10 +1494,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64">
         <v>176</v>
@@ -1507,10 +1505,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B65" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C65">
         <v>187</v>
@@ -1518,10 +1516,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B66" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C66">
         <v>189</v>
@@ -1529,10 +1527,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C67">
         <v>191</v>
@@ -1540,10 +1538,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B68" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C68">
         <v>193</v>
@@ -1551,10 +1549,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B69" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C69">
         <v>195</v>
@@ -1562,10 +1560,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C70">
         <v>197</v>
@@ -1573,10 +1571,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B71" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C71">
         <v>199</v>
@@ -1584,10 +1582,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B72" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C72">
         <v>211</v>
@@ -1595,10 +1593,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B73" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C73">
         <v>213</v>
@@ -1606,10 +1604,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B74" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C74">
         <v>215</v>
@@ -1617,10 +1615,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C75">
         <v>216.5</v>
@@ -1628,10 +1626,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B76" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C76">
         <v>216</v>
@@ -1639,10 +1637,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C77">
         <v>217.5</v>
@@ -1650,10 +1648,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C78">
         <v>217</v>
@@ -1661,10 +1659,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C79">
         <v>218.5</v>
@@ -1672,10 +1670,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B80" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C80">
         <v>218</v>
@@ -1683,10 +1681,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B81" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C81">
         <v>219.5</v>
@@ -1694,10 +1692,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B82" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C82">
         <v>219</v>
@@ -1705,10 +1703,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B83" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C83">
         <v>220.5</v>
@@ -1716,10 +1714,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B84" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C84">
         <v>220</v>
@@ -1727,10 +1725,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B85" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C85">
         <v>221.5</v>
@@ -1738,10 +1736,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B86" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C86">
         <v>221</v>
@@ -1749,10 +1747,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B87" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C87">
         <v>222</v>
@@ -1760,10 +1758,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B88" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C88">
         <v>223</v>
@@ -1771,10 +1769,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B89" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C89">
         <v>236</v>
@@ -1782,10 +1780,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B90" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C90">
         <v>238</v>
@@ -1793,10 +1791,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B91" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C91">
         <v>240</v>
@@ -1804,10 +1802,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B92" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C92">
         <v>242</v>
@@ -1815,10 +1813,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B93" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C93">
         <v>244</v>
@@ -1826,10 +1824,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B94" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C94">
         <v>246</v>
@@ -1837,10 +1835,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B95" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C95">
         <v>259</v>
@@ -1848,10 +1846,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B96" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C96">
         <v>261</v>
@@ -1859,10 +1857,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B97" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C97">
         <v>263</v>
@@ -1870,10 +1868,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B98" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C98">
         <v>265</v>
@@ -1881,10 +1879,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B99" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C99">
         <v>267</v>
@@ -1892,10 +1890,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B100" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C100">
         <v>333</v>
@@ -1903,10 +1901,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B101" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C101">
         <v>335.5</v>
@@ -1914,10 +1912,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B102" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C102">
         <v>335</v>
@@ -1925,10 +1923,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B103" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C103">
         <v>336.5</v>
@@ -1936,10 +1934,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B104" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C104">
         <v>336</v>
@@ -1947,10 +1945,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C105">
         <v>337.5</v>
@@ -1958,10 +1956,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B106" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C106">
         <v>337</v>
@@ -1969,10 +1967,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B107" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C107">
         <v>338.5</v>
@@ -1980,10 +1978,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B108" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C108">
         <v>338</v>
@@ -1991,10 +1989,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B109" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C109">
         <v>399.5</v>
@@ -2002,10 +2000,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B110" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C110">
         <v>339</v>
@@ -2013,10 +2011,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B111" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C111">
         <v>340.5</v>
@@ -2024,10 +2022,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B112" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C112">
         <v>340</v>
@@ -2035,10 +2033,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B113" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C113">
         <v>341</v>
@@ -2046,10 +2044,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B114" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C114">
         <v>355</v>
@@ -2057,10 +2055,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B115" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C115">
         <v>357</v>
@@ -2068,10 +2066,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B116" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C116">
         <v>359</v>
@@ -2079,10 +2077,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B117" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C117">
         <v>361</v>
@@ -2090,10 +2088,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B118" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C118">
         <v>363</v>
@@ -2101,10 +2099,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B119" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C119">
         <v>365</v>
@@ -2112,10 +2110,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B120" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C120">
         <v>367</v>
@@ -2123,10 +2121,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B121" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C121">
         <v>403</v>
@@ -2134,10 +2132,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B122" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C122">
         <v>405.5</v>
@@ -2145,10 +2143,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B123" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C123">
         <v>405</v>
@@ -2156,10 +2154,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B124" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C124">
         <v>406.5</v>
@@ -2167,10 +2165,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B125" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C125">
         <v>406</v>
@@ -2178,10 +2176,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B126" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C126">
         <v>407.5</v>
@@ -2189,10 +2187,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B127" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C127">
         <v>408.5</v>
@@ -2200,10 +2198,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B128" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C128">
         <v>408</v>
@@ -2211,10 +2209,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B129" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C129">
         <v>409.5</v>
@@ -2222,10 +2220,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B130" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C130">
         <v>409</v>
@@ -2233,10 +2231,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B131" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C131">
         <v>410.5</v>
@@ -2244,10 +2242,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B132" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C132">
         <v>410</v>
@@ -2255,10 +2253,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B133" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C133">
         <v>411.5</v>
@@ -2266,10 +2264,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B134" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C134">
         <v>411</v>
@@ -2277,10 +2275,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B135" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C135">
         <v>412.5</v>
@@ -2288,10 +2286,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B136" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C136">
         <v>412</v>
@@ -2299,10 +2297,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B137" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C137">
         <v>427</v>
@@ -2310,10 +2308,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B138" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C138">
         <v>429</v>
@@ -2321,10 +2319,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B139" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C139">
         <v>431</v>
@@ -2332,10 +2330,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B140" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C140">
         <v>433</v>
@@ -2343,10 +2341,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B141" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C141">
         <v>435</v>
